--- a/main/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
+++ b/main/ig/StructureDefinition-fr-inpatient-medicationrequest-exclusion.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
